--- a/materials/exp_lists/session_1_2.xlsx
+++ b/materials/exp_lists/session_1_2.xlsx
@@ -473,13 +473,13 @@
     <t>derartu = стрела?</t>
   </si>
   <si>
-    <t>reskane</t>
-  </si>
-  <si>
-    <t>reskane.wav</t>
-  </si>
-  <si>
-    <t>reskane = ведро?</t>
+    <t>reketre</t>
+  </si>
+  <si>
+    <t>reketre.wav</t>
+  </si>
+  <si>
+    <t>reketre = ведро?</t>
   </si>
   <si>
     <t>pafinu</t>
